--- a/tests/testthat/test_data/48/noName.xlsx
+++ b/tests/testthat/test_data/48/noName.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/48/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2243CA6D-3722-FD45-B48C-8B1B189E4CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{709697E0-378A-A445-A5A4-ED945C6670D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>full</t>
   </si>
@@ -28,163 +28,163 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,149 +1067,149 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1237,6 +1237,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -1267,140 +1270,140 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
@@ -1419,6 +1422,9 @@
       </c>
       <c r="G15" t="s">
         <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>54</v>

--- a/tests/testthat/test_data/48/noName.xlsx
+++ b/tests/testthat/test_data/48/noName.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/48/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Library/CloudStorage/OneDrive-UMassChanMedicalSchool/01_Personal/00_Important_main/02_R-projects/00_Packages/99_tidyplate/tidyplate/tests/testthat/test_data/48/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709697E0-378A-A445-A5A4-ED945C6670D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EF373-09A5-634B-85DC-459DA410FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noName" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>full</t>
   </si>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -729,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -769,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -875,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1017,18 +1017,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,9 +1237,6 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
